--- a/stock_historical_data/1wk/DWARKESH.NS.xlsx
+++ b/stock_historical_data/1wk/DWARKESH.NS.xlsx
@@ -57309,7 +57309,9 @@
       <c r="Q1015" t="n">
         <v>0</v>
       </c>
-      <c r="R1015" t="inlineStr"/>
+      <c r="R1015" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/DWARKESH.NS.xlsx
+++ b/stock_historical_data/1wk/DWARKESH.NS.xlsx
@@ -54315,7 +54315,9 @@
       <c r="P1016" t="n">
         <v>0</v>
       </c>
-      <c r="Q1016" t="inlineStr"/>
+      <c r="Q1016" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/DWARKESH.NS.xlsx
+++ b/stock_historical_data/1wk/DWARKESH.NS.xlsx
@@ -57421,7 +57421,9 @@
       <c r="Q1017" t="n">
         <v>0</v>
       </c>
-      <c r="R1017" t="inlineStr"/>
+      <c r="R1017" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/DWARKESH.NS.xlsx
+++ b/stock_historical_data/1wk/DWARKESH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1017"/>
+  <dimension ref="A1:R1019"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57425,6 +57425,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>78.66000366210938</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>80.80000305175781</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>74.80000305175781</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>77.90000152587891</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>77.90000152587891</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>20026671</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>77</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>78.83000183105469</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>72.44999694824219</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>73.80000305175781</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>73.80000305175781</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>9525742</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1019" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/DWARKESH.NS.xlsx
+++ b/stock_historical_data/1wk/DWARKESH.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1019"/>
+  <dimension ref="A1:R1054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -57357,7 +57357,7 @@
         <v>23</v>
       </c>
       <c r="O1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1016" t="n">
         <v>0</v>
@@ -57469,7 +57469,7 @@
         <v>25</v>
       </c>
       <c r="O1018" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1018" t="n">
         <v>0</v>
@@ -57477,7 +57477,9 @@
       <c r="Q1018" t="n">
         <v>0</v>
       </c>
-      <c r="R1018" t="inlineStr"/>
+      <c r="R1018" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
@@ -57531,7 +57533,1829 @@
       <c r="Q1019" t="n">
         <v>0</v>
       </c>
-      <c r="R1019" t="inlineStr"/>
+      <c r="R1019" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>74.19999694824219</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>76.69999694824219</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>72.91000366210938</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>75.55999755859375</v>
+      </c>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="n">
+        <v>7244185</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>75.90000152587891</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>78.84999847412109</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>73.51000213623047</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>76.63999938964844</v>
+      </c>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="n">
+        <v>14830878</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>77.01999664306641</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>78.15000152587891</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>73.59999847412109</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>73.79000091552734</v>
+      </c>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="n">
+        <v>5900567</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>73.55999755859375</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>76.75</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>70.94000244140625</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>74.51999664306641</v>
+      </c>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="n">
+        <v>9281163</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>75.69999694824219</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>77.98999786376953</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>71.62000274658203</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>72.66999816894531</v>
+      </c>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="n">
+        <v>10998906</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>70.90000152587891</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>71.76999664306641</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>67.90000152587891</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>68.55999755859375</v>
+      </c>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="n">
+        <v>5092831</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>68.30000305175781</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>74</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>67.65000152587891</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>71.83999633789062</v>
+      </c>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="n">
+        <v>9025740</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>72.33999633789062</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>74.94999694824219</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>72.01000213623047</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>73.26999664306641</v>
+      </c>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="n">
+        <v>6460010</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>73.84999847412109</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>71.61000061035156</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>76.54000091552734</v>
+      </c>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="n">
+        <v>15197990</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>77</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>77.40000152587891</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>71.55000305175781</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>72.05000305175781</v>
+      </c>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="n">
+        <v>5262496</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>71.80999755859375</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>72.15000152587891</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>70.45999908447266</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>71.73000335693359</v>
+      </c>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="n">
+        <v>3344894</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>73.94999694824219</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>71.80000305175781</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>74.27999877929688</v>
+      </c>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="n">
+        <v>7767311</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>78.80000305175781</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>73.05999755859375</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>76.75</v>
+      </c>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="n">
+        <v>17413032</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>76.75</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>80.33999633789062</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>74.73999786376953</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>75.16000366210938</v>
+      </c>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="n">
+        <v>13479610</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>75.33000183105469</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>75.63999938964844</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>70.05000305175781</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>72.94999694824219</v>
+      </c>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="n">
+        <v>4882339</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>72.86000061035156</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>73.38999938964844</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>68.04000091552734</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>69.73999786376953</v>
+      </c>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="n">
+        <v>4005870</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>70</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>70.98999786376953</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>61.20000076293945</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>61.83000183105469</v>
+      </c>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="n">
+        <v>4793690</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>62</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>63.65000152587891</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="n">
+        <v>7333581</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>67.29000091552734</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>61.72999954223633</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>64.94000244140625</v>
+      </c>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="n">
+        <v>3273763</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>64.26000213623047</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>64.73999786376953</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>60.61000061035156</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>61.70999908447266</v>
+      </c>
+      <c r="F1039" t="inlineStr"/>
+      <c r="G1039" t="n">
+        <v>2729245</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>61.70000076293945</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>61.97999954223633</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>58.70000076293945</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>59.81000137329102</v>
+      </c>
+      <c r="F1040" t="inlineStr"/>
+      <c r="G1040" t="n">
+        <v>1777579</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>60.9900016784668</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>66.30000305175781</v>
+      </c>
+      <c r="F1041" t="inlineStr"/>
+      <c r="G1041" t="n">
+        <v>3364380</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>66.90000152587891</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>63.40999984741211</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>64.55000305175781</v>
+      </c>
+      <c r="F1042" t="inlineStr"/>
+      <c r="G1042" t="n">
+        <v>2928619</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>65.30999755859375</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>60.81000137329102</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>61.7599983215332</v>
+      </c>
+      <c r="F1043" t="inlineStr"/>
+      <c r="G1043" t="n">
+        <v>3771004</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>61.9900016784668</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>62.5099983215332</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>58.52000045776367</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>58.70000076293945</v>
+      </c>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="n">
+        <v>3728575</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>59.4900016784668</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>59.97999954223633</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>56.20000076293945</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>56.65000152587891</v>
+      </c>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="n">
+        <v>1820044</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>56.65000152587891</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>55.02999877929688</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>57.52000045776367</v>
+      </c>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="n">
+        <v>2675899</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>57.9900016784668</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>58.18000030517578</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>49.29000091552734</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>49.79000091552734</v>
+      </c>
+      <c r="F1047" t="inlineStr"/>
+      <c r="G1047" t="n">
+        <v>3350439</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>50.18999862670898</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>51.65000152587891</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>46.04999923706055</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>50.86000061035156</v>
+      </c>
+      <c r="F1048" t="inlineStr"/>
+      <c r="G1048" t="n">
+        <v>5924019</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>52.20000076293945</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>50.08000183105469</v>
+      </c>
+      <c r="F1049" t="inlineStr"/>
+      <c r="G1049" t="n">
+        <v>5551719</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>52</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>46.11000061035156</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>51.13999938964844</v>
+      </c>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="n">
+        <v>5230630</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>50.47000122070312</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>50.61000061035156</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>47.09999847412109</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>47.34000015258789</v>
+      </c>
+      <c r="F1051" t="inlineStr"/>
+      <c r="G1051" t="n">
+        <v>3200599</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>47.38999938964844</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>47.7599983215332</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>40.02999877929688</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>40.54999923706055</v>
+      </c>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="n">
+        <v>4382629</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>40.4900016784668</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>45.36999893188477</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>43.40999984741211</v>
+      </c>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="n">
+        <v>3519788</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>43.45000076293945</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>37.36000061035156</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>38.27000045776367</v>
+      </c>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="n">
+        <v>2753807</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/DWARKESH.NS.xlsx
+++ b/stock_historical_data/1wk/DWARKESH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1054"/>
+  <dimension ref="A1:R1058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -57587,7 +57587,9 @@
       <c r="Q1020" t="n">
         <v>0</v>
       </c>
-      <c r="R1020" t="inlineStr"/>
+      <c r="R1020" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
@@ -57639,7 +57641,9 @@
       <c r="Q1021" t="n">
         <v>0</v>
       </c>
-      <c r="R1021" t="inlineStr"/>
+      <c r="R1021" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
@@ -57691,7 +57695,9 @@
       <c r="Q1022" t="n">
         <v>1</v>
       </c>
-      <c r="R1022" t="inlineStr"/>
+      <c r="R1022" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
@@ -57743,7 +57749,9 @@
       <c r="Q1023" t="n">
         <v>0</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
@@ -57795,7 +57803,9 @@
       <c r="Q1024" t="n">
         <v>2</v>
       </c>
-      <c r="R1024" t="inlineStr"/>
+      <c r="R1024" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
@@ -57847,7 +57857,9 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
@@ -57899,7 +57911,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57951,7 +57965,9 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
@@ -58003,7 +58019,9 @@
       <c r="Q1028" t="n">
         <v>0</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -58055,7 +58073,9 @@
       <c r="Q1029" t="n">
         <v>0</v>
       </c>
-      <c r="R1029" t="inlineStr"/>
+      <c r="R1029" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
@@ -58107,7 +58127,9 @@
       <c r="Q1030" t="n">
         <v>0</v>
       </c>
-      <c r="R1030" t="inlineStr"/>
+      <c r="R1030" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
@@ -58159,7 +58181,9 @@
       <c r="Q1031" t="n">
         <v>0</v>
       </c>
-      <c r="R1031" t="inlineStr"/>
+      <c r="R1031" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
@@ -58211,7 +58235,9 @@
       <c r="Q1032" t="n">
         <v>1</v>
       </c>
-      <c r="R1032" t="inlineStr"/>
+      <c r="R1032" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
@@ -58263,7 +58289,9 @@
       <c r="Q1033" t="n">
         <v>0</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
@@ -58315,7 +58343,9 @@
       <c r="Q1034" t="n">
         <v>0</v>
       </c>
-      <c r="R1034" t="inlineStr"/>
+      <c r="R1034" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
@@ -58367,7 +58397,9 @@
       <c r="Q1035" t="n">
         <v>0</v>
       </c>
-      <c r="R1035" t="inlineStr"/>
+      <c r="R1035" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
@@ -58419,7 +58451,9 @@
       <c r="Q1036" t="n">
         <v>0</v>
       </c>
-      <c r="R1036" t="inlineStr"/>
+      <c r="R1036" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
@@ -58471,7 +58505,9 @@
       <c r="Q1037" t="n">
         <v>0</v>
       </c>
-      <c r="R1037" t="inlineStr"/>
+      <c r="R1037" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
@@ -58523,7 +58559,9 @@
       <c r="Q1038" t="n">
         <v>0</v>
       </c>
-      <c r="R1038" t="inlineStr"/>
+      <c r="R1038" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
@@ -58575,7 +58613,9 @@
       <c r="Q1039" t="n">
         <v>2</v>
       </c>
-      <c r="R1039" t="inlineStr"/>
+      <c r="R1039" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
@@ -58627,7 +58667,9 @@
       <c r="Q1040" t="n">
         <v>0</v>
       </c>
-      <c r="R1040" t="inlineStr"/>
+      <c r="R1040" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
@@ -58679,7 +58721,9 @@
       <c r="Q1041" t="n">
         <v>0</v>
       </c>
-      <c r="R1041" t="inlineStr"/>
+      <c r="R1041" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
@@ -58731,7 +58775,9 @@
       <c r="Q1042" t="n">
         <v>0</v>
       </c>
-      <c r="R1042" t="inlineStr"/>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
@@ -58783,7 +58829,9 @@
       <c r="Q1043" t="n">
         <v>1</v>
       </c>
-      <c r="R1043" t="inlineStr"/>
+      <c r="R1043" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
@@ -58835,7 +58883,9 @@
       <c r="Q1044" t="n">
         <v>0</v>
       </c>
-      <c r="R1044" t="inlineStr"/>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
@@ -58887,7 +58937,9 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
@@ -58939,7 +58991,9 @@
       <c r="Q1046" t="n">
         <v>0</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
@@ -58991,7 +59045,9 @@
       <c r="Q1047" t="n">
         <v>0</v>
       </c>
-      <c r="R1047" t="inlineStr"/>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
@@ -59043,7 +59099,9 @@
       <c r="Q1048" t="n">
         <v>0</v>
       </c>
-      <c r="R1048" t="inlineStr"/>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
@@ -59095,7 +59153,9 @@
       <c r="Q1049" t="n">
         <v>0</v>
       </c>
-      <c r="R1049" t="inlineStr"/>
+      <c r="R1049" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
@@ -59147,7 +59207,9 @@
       <c r="Q1050" t="n">
         <v>0</v>
       </c>
-      <c r="R1050" t="inlineStr"/>
+      <c r="R1050" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
@@ -59199,7 +59261,9 @@
       <c r="Q1051" t="n">
         <v>0</v>
       </c>
-      <c r="R1051" t="inlineStr"/>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
@@ -59251,7 +59315,9 @@
       <c r="Q1052" t="n">
         <v>0</v>
       </c>
-      <c r="R1052" t="inlineStr"/>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
@@ -59303,7 +59369,9 @@
       <c r="Q1053" t="n">
         <v>0</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
@@ -59355,7 +59423,217 @@
       <c r="Q1054" t="n">
         <v>0</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>38.59000015258789</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>36.09999847412109</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>40.77999877929688</v>
+      </c>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="n">
+        <v>4143073</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>40.90000152587891</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>41.40000152587891</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>37.40999984741211</v>
+      </c>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="n">
+        <v>3043978</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>37.77000045776367</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>42</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>36.38999938964844</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>40.77000045776367</v>
+      </c>
+      <c r="F1057" t="inlineStr"/>
+      <c r="G1057" t="n">
+        <v>4567382</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>41</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>42.22000122070312</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>36.22000122070312</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>36.81000137329102</v>
+      </c>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="n">
+        <v>7286770</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
